--- a/LSL/AIM/Additional Finance Reports.xlsx
+++ b/LSL/AIM/Additional Finance Reports.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="2" r:id="rId1"/>
@@ -545,7 +545,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -630,7 +630,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,6 +646,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,9 +910,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="6" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -939,9 +942,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -957,8 +957,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2116,6 +2122,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2165,7 +2174,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2173,6 +2182,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2211,7 +2234,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2219,6 +2242,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2257,7 +2294,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2265,6 +2302,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2303,7 +2354,7 @@
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr>
+          <xdr:spPr bwMode="auto">
             <a:xfrm>
               <a:off x="0" y="0"/>
               <a:ext cx="0" cy="0"/>
@@ -2311,6 +2362,20 @@
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:noFill/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2433,7 +2498,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2468,7 +2533,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2680,17 +2745,17 @@
   <dimension ref="A3:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>61</v>
       </c>
@@ -2704,7 +2769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="43">
         <v>1</v>
       </c>
@@ -2718,7 +2783,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="43">
         <v>2</v>
       </c>
@@ -2730,7 +2795,7 @@
       </c>
       <c r="D5" s="43"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -2744,7 +2809,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="43">
         <v>4</v>
       </c>
@@ -2758,7 +2823,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="43">
         <v>5</v>
       </c>
@@ -2771,21 +2836,21 @@
       <c r="D8" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="68" t="s">
         <v>112</v>
       </c>
-      <c r="F8" s="70" t="s">
+      <c r="F8" s="69" t="s">
         <v>113</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30">
-      <c r="A9" s="46">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="88">
         <v>6</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="46" t="s">
         <v>84</v>
       </c>
       <c r="C9" s="41" t="s">
@@ -2817,7 +2882,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="64.42578125" style="1" bestFit="1" customWidth="1"/>
@@ -2826,45 +2891,45 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" s="6"/>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
@@ -2875,56 +2940,56 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10" s="13" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="15"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="17"/>
       <c r="D11" s="17"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B12" s="11" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B13" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B14" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>11</v>
@@ -2932,7 +2997,7 @@
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="13" t="s">
         <v>7</v>
@@ -2940,7 +3005,7 @@
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="13" t="s">
         <v>12</v>
@@ -2948,7 +3013,7 @@
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="19" t="s">
         <v>13</v>
@@ -2956,7 +3021,7 @@
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="16" t="s">
         <v>8</v>
@@ -2964,420 +3029,420 @@
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B20" s="11" t="s">
         <v>14</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B21" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B23" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B25" s="22" t="s">
         <v>18</v>
       </c>
       <c r="C25" s="23"/>
       <c r="D25" s="23"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B26" s="24" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26" s="26"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B27" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="18"/>
       <c r="D27" s="18"/>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B28" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C28" s="23"/>
       <c r="D28" s="23"/>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B30" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="15"/>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="15"/>
       <c r="D34" s="15"/>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="28" t="s">
         <v>26</v>
       </c>
       <c r="C35" s="15"/>
       <c r="D35" s="15"/>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="15"/>
       <c r="D36" s="15"/>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="28" t="s">
         <v>28</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B38" s="28" t="s">
         <v>29</v>
       </c>
       <c r="C38" s="15"/>
       <c r="D38" s="15"/>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="28" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="15"/>
       <c r="D39" s="15"/>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B40" s="28" t="s">
         <v>30</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B41" s="29" t="s">
         <v>31</v>
       </c>
       <c r="C41" s="30"/>
       <c r="D41" s="30"/>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B42" s="29" t="s">
         <v>32</v>
       </c>
       <c r="C42" s="30"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B43" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C43" s="30"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B44" s="31" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="32"/>
       <c r="D44" s="33"/>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B45" s="27" t="s">
         <v>34</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="23"/>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B46" s="24" t="s">
         <v>35</v>
       </c>
       <c r="C46" s="34"/>
       <c r="D46" s="15"/>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B47" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
     </row>
-    <row r="48" spans="2:4">
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B48" s="27" t="s">
         <v>36</v>
       </c>
       <c r="C48" s="23"/>
       <c r="D48" s="23"/>
     </row>
-    <row r="49" spans="2:4">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="24" t="s">
         <v>37</v>
       </c>
       <c r="C49" s="35"/>
       <c r="D49" s="15"/>
     </row>
-    <row r="50" spans="2:4">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="24" t="s">
         <v>38</v>
       </c>
       <c r="C50" s="36"/>
       <c r="D50" s="15"/>
     </row>
-    <row r="51" spans="2:4">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
     </row>
-    <row r="52" spans="2:4">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>39</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B53" s="11" t="s">
         <v>40</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
     </row>
-    <row r="54" spans="2:4">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C54" s="15"/>
       <c r="D54" s="15"/>
     </row>
-    <row r="55" spans="2:4">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="13" t="s">
         <v>16</v>
       </c>
       <c r="C55" s="15"/>
       <c r="D55" s="15"/>
     </row>
-    <row r="56" spans="2:4">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B56" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="18"/>
       <c r="D56" s="37"/>
     </row>
-    <row r="57" spans="2:4">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B57" s="22" t="s">
         <v>42</v>
       </c>
       <c r="C57" s="23"/>
       <c r="D57" s="15"/>
     </row>
-    <row r="58" spans="2:4">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B58" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C58" s="15"/>
       <c r="D58" s="15"/>
     </row>
-    <row r="59" spans="2:4">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C59" s="15"/>
       <c r="D59" s="15"/>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B60" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="18"/>
       <c r="D60" s="38"/>
     </row>
-    <row r="61" spans="2:4">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="27" t="s">
         <v>44</v>
       </c>
       <c r="C61" s="23"/>
       <c r="D61" s="23"/>
     </row>
-    <row r="62" spans="2:4">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="24" t="s">
         <v>45</v>
       </c>
       <c r="C62" s="15"/>
       <c r="D62" s="15"/>
     </row>
-    <row r="63" spans="2:4">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="24" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
     </row>
-    <row r="64" spans="2:4">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="18"/>
       <c r="D64" s="37"/>
     </row>
-    <row r="65" spans="2:4">
+    <row r="65" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B65" s="27" t="s">
         <v>46</v>
       </c>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
     </row>
-    <row r="66" spans="2:4">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B66" s="24" t="s">
         <v>47</v>
       </c>
       <c r="C66" s="25"/>
       <c r="D66" s="25"/>
     </row>
-    <row r="67" spans="2:4">
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B67" s="24" t="s">
         <v>48</v>
       </c>
       <c r="C67" s="34"/>
       <c r="D67" s="34"/>
     </row>
-    <row r="68" spans="2:4">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B68" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="18"/>
       <c r="D68" s="18"/>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B69" s="11" t="s">
         <v>49</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
     </row>
-    <row r="70" spans="2:4">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B70" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C70" s="15"/>
       <c r="D70" s="15"/>
     </row>
-    <row r="71" spans="2:4">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B71" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
     </row>
-    <row r="72" spans="2:4">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
     </row>
-    <row r="73" spans="2:4">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B73" s="11" t="s">
         <v>52</v>
       </c>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
     </row>
-    <row r="74" spans="2:4">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B74" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C74" s="34"/>
       <c r="D74" s="34"/>
     </row>
-    <row r="75" spans="2:4">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B75" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
     </row>
-    <row r="76" spans="2:4">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B76" s="27" t="s">
         <v>54</v>
       </c>
       <c r="C76" s="23"/>
       <c r="D76" s="23"/>
     </row>
-    <row r="77" spans="2:4">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B77" s="24" t="s">
         <v>55</v>
       </c>
       <c r="C77" s="39"/>
       <c r="D77" s="39"/>
     </row>
-    <row r="78" spans="2:4">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B78" s="24" t="s">
         <v>56</v>
       </c>
       <c r="C78" s="39"/>
       <c r="D78" s="39"/>
     </row>
-    <row r="79" spans="2:4">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B79" s="16" t="s">
         <v>8</v>
       </c>
@@ -3402,67 +3467,67 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="40" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>79</v>
       </c>
@@ -3480,218 +3545,218 @@
       <selection sqref="A1:W6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="76" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="75"/>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="75"/>
-      <c r="T1" s="75"/>
-      <c r="U1" s="75"/>
-      <c r="V1" s="75"/>
-      <c r="W1" s="75"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="80" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="79" t="s">
         <v>128</v>
       </c>
-      <c r="D3" s="84" t="s">
+      <c r="D3" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="86" t="s">
         <v>130</v>
       </c>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="80" t="s">
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="78" t="s">
         <v>131</v>
       </c>
-      <c r="I3" s="84" t="s">
+      <c r="I3" s="82" t="s">
         <v>132</v>
       </c>
-      <c r="J3" s="74" t="s">
+      <c r="J3" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="K3" s="88"/>
-      <c r="L3" s="88"/>
-      <c r="M3" s="88"/>
-      <c r="N3" s="88"/>
-      <c r="O3" s="88"/>
-      <c r="P3" s="88"/>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="88"/>
-      <c r="U3" s="88"/>
-      <c r="V3" s="80" t="s">
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+      <c r="M3" s="87"/>
+      <c r="N3" s="87"/>
+      <c r="O3" s="87"/>
+      <c r="P3" s="87"/>
+      <c r="Q3" s="87"/>
+      <c r="R3" s="87"/>
+      <c r="S3" s="87"/>
+      <c r="T3" s="87"/>
+      <c r="U3" s="87"/>
+      <c r="V3" s="78" t="s">
         <v>134</v>
       </c>
-      <c r="W3" s="84" t="s">
+      <c r="W3" s="82" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="82"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="77" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" s="80"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="75" t="s">
         <v>136</v>
       </c>
-      <c r="F4" s="77" t="s">
+      <c r="F4" s="75" t="s">
         <v>137</v>
       </c>
-      <c r="G4" s="86" t="s">
+      <c r="G4" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="85"/>
-      <c r="J4" s="78" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="76" t="s">
         <v>139</v>
       </c>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="75" t="s">
         <v>140</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="75" t="s">
         <v>141</v>
       </c>
-      <c r="M4" s="77" t="s">
+      <c r="M4" s="75" t="s">
         <v>142</v>
       </c>
-      <c r="N4" s="77" t="s">
+      <c r="N4" s="75" t="s">
         <v>143</v>
       </c>
-      <c r="O4" s="77" t="s">
+      <c r="O4" s="75" t="s">
         <v>144</v>
       </c>
-      <c r="P4" s="77" t="s">
+      <c r="P4" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="Q4" s="77" t="s">
+      <c r="Q4" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="R4" s="77" t="s">
+      <c r="R4" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="S4" s="77" t="s">
+      <c r="S4" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="T4" s="77" t="s">
+      <c r="T4" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="U4" s="86" t="s">
+      <c r="U4" s="84" t="s">
         <v>150</v>
       </c>
-      <c r="V4" s="82"/>
-      <c r="W4" s="85"/>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="79"/>
-      <c r="R5" s="79"/>
-      <c r="S5" s="79"/>
-      <c r="T5" s="79"/>
-      <c r="U5" s="79"/>
-      <c r="V5" s="79"/>
-      <c r="W5" s="79"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87" t="s">
+      <c r="V4" s="80"/>
+      <c r="W4" s="83"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" s="77"/>
+      <c r="B5" s="77"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="77"/>
+      <c r="K5" s="77"/>
+      <c r="L5" s="77"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="77"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="85" t="s">
         <v>153</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="85" t="s">
         <v>154</v>
       </c>
-      <c r="I6" s="87"/>
-      <c r="J6" s="87" t="s">
+      <c r="I6" s="85"/>
+      <c r="J6" s="85" t="s">
         <v>155</v>
       </c>
-      <c r="K6" s="87" t="s">
+      <c r="K6" s="85" t="s">
         <v>156</v>
       </c>
-      <c r="L6" s="87" t="s">
+      <c r="L6" s="85" t="s">
         <v>157</v>
       </c>
-      <c r="M6" s="87" t="s">
+      <c r="M6" s="85" t="s">
         <v>158</v>
       </c>
-      <c r="N6" s="87" t="s">
+      <c r="N6" s="85" t="s">
         <v>159</v>
       </c>
-      <c r="O6" s="87" t="s">
+      <c r="O6" s="85" t="s">
         <v>160</v>
       </c>
-      <c r="P6" s="87" t="s">
+      <c r="P6" s="85" t="s">
         <v>161</v>
       </c>
-      <c r="Q6" s="87" t="s">
+      <c r="Q6" s="85" t="s">
         <v>162</v>
       </c>
-      <c r="R6" s="87" t="s">
+      <c r="R6" s="85" t="s">
         <v>163</v>
       </c>
-      <c r="S6" s="87" t="s">
+      <c r="S6" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="T6" s="87" t="s">
+      <c r="T6" s="85" t="s">
         <v>165</v>
       </c>
-      <c r="U6" s="87" t="s">
+      <c r="U6" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="V6" s="87" t="s">
+      <c r="V6" s="85" t="s">
         <v>167</v>
       </c>
-      <c r="W6" s="87" t="s">
+      <c r="W6" s="85" t="s">
         <v>168</v>
       </c>
     </row>
@@ -3713,53 +3778,53 @@
       <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" style="51" customWidth="1"/>
-    <col min="2" max="2" width="19" style="50" customWidth="1"/>
-    <col min="3" max="3" width="29.28515625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" style="50" customWidth="1"/>
+    <col min="2" max="2" width="19" style="49" customWidth="1"/>
+    <col min="3" max="3" width="29.28515625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="48" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="59" t="s">
+      <c r="H1" s="58" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="58"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="52"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="51"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3837,58 +3902,58 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="23" style="49" customWidth="1"/>
-    <col min="4" max="4" width="28.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="23" style="48" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" style="48" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" style="48" customWidth="1"/>
-    <col min="8" max="8" width="24.42578125" style="48" customWidth="1"/>
-    <col min="9" max="9" width="25.42578125" style="48" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="47" customWidth="1"/>
+    <col min="8" max="8" width="24.42578125" style="47" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="67"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52"/>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="10">
@@ -3971,57 +4036,57 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" style="48" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" style="48" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
-    <col min="5" max="5" width="16" style="49" customWidth="1"/>
+    <col min="5" max="5" width="16" style="48" customWidth="1"/>
     <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="19.28515625" style="48" customWidth="1"/>
-    <col min="8" max="9" width="11" style="48" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="47" customWidth="1"/>
+    <col min="8" max="9" width="11" style="47" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="62" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="60" t="s">
         <v>98</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>101</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I1" s="59" t="s">
+      <c r="I1" s="58" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="52"/>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -4099,63 +4164,63 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="19" style="49" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="19" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="48" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="35.28515625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="49" customWidth="1"/>
-    <col min="8" max="8" width="42" style="48" customWidth="1"/>
-    <col min="9" max="9" width="36.28515625" style="48" customWidth="1"/>
+    <col min="6" max="6" width="35.28515625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="35.42578125" style="48" customWidth="1"/>
+    <col min="8" max="8" width="42" style="47" customWidth="1"/>
+    <col min="9" max="9" width="36.28515625" style="47" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="63" t="s">
+      <c r="C1" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="G1" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="59" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="59" t="s">
         <v>85</v>
       </c>
-      <c r="J1" s="65" t="s">
+      <c r="J1" s="64" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="67"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-      <c r="J2" s="68"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="66"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="67"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4243,7 +4308,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -4251,29 +4316,29 @@
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="72" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="73" t="s">
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="73" t="s">
+      <c r="B3" s="72" t="s">
         <v>120</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>121</v>
       </c>
-      <c r="D3" s="73" t="s">
+      <c r="D3" s="72" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="73" t="s">
+      <c r="E3" s="72" t="s">
         <v>123</v>
       </c>
     </row>
